--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,165 +472,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7164161194602587</v>
+        <v>0.5619072232645729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1592032368386503</v>
+        <v>0.1932522516086035</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.095847931030278e-10</v>
+        <v>1.752858365629008e-24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>GatesS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7663411947954318</v>
+        <v>0.4790943988501117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1498028075582838</v>
+        <v>0.09754883650554519</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_fix_dispersion_mean</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.943574092164979e-14</v>
+        <v>7.674697851648017e-35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>GatesT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6385607757596726</v>
+        <v>0.5379195765089455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1043480770685433</v>
+        <v>0.1509971901683748</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.357174769243171e-13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Waterclocks</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5060447703249575</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1261790506952926</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.299596790503912e-14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lizards</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7444349739456332</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1412177851554116</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>qa_fix_dispersion_mean</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9.231070346100027e-10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tastes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5820514681355968</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1206116549956723</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.633365389031372e-12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lodgepoles</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6105173567295581</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.181394986745738</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.403286764183937e-16</v>
+        <v>7.262125325576496e-24</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5619072232645729</v>
+        <v>0.5119816233366274</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1932522516086035</v>
+        <v>0.2013802160866826</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.752858365629008e-24</v>
+        <v>2.781931710304319e-22</v>
       </c>
     </row>
     <row r="3">
@@ -496,13 +496,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790943988501117</v>
+        <v>0.5027128607879965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09754883650554519</v>
+        <v>0.1278603665557776</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.674697851648017e-35</v>
+        <v>5.497000879062199e-28</v>
       </c>
     </row>
     <row r="4">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5379195765089455</v>
+        <v>0.3942212794016117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1509971901683748</v>
+        <v>0.1649984488824481</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.262125325576496e-24</v>
+        <v>1.032691392870033e-21</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5119816233366274</v>
+        <v>0.6218629962506178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2013802160866826</v>
+        <v>0.09729250143089825</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.781931710304319e-22</v>
+        <v>1.851667786016466e-10</v>
       </c>
     </row>
     <row r="3">
@@ -496,21 +496,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5027128607879965</v>
+        <v>0.4731027190065441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1278603665557776</v>
+        <v>0.1231519890269868</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.497000879062199e-28</v>
+        <v>7.472842657895719e-10</v>
       </c>
     </row>
     <row r="4">
@@ -520,21 +520,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3942212794016117</v>
+        <v>0.7186502746103329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1649984488824481</v>
+        <v>0.1263771545688306</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.032691392870033e-21</v>
+        <v>6.794213183571248e-08</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>norm_qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -472,22 +472,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6218629962506178</v>
+        <v>0.5023643612451429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09729250143089825</v>
+        <v>0.131400507317854</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.851667786016466e-10</v>
-      </c>
+          <t>norm_coldread_gaze_wpm_median</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -499,19 +497,17 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4731027190065441</v>
+        <v>0.5017701488129156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1231519890269868</v>
+        <v>0.08666302956686936</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_qa_saccade_regression_rate_%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7.472842657895719e-10</v>
-      </c>
+          <t>norm_coldread_gaze_wpm_median</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,22 +516,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7186502746103329</v>
+        <v>0.4643702258132781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1263771545688306</v>
+        <v>0.1050034032094902</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6.794213183571248e-08</v>
-      </c>
+          <t>norm_coldread_gaze_wpm_median</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/cluster_metrics_gmm.xlsx
+++ b/data/output/cluster_metrics_gmm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,10 +482,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>norm_qa_dwell_time_pdf</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7.491445529496022e-09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,14 +502,16 @@
         <v>0.5017701488129156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08666302956686936</v>
+        <v>0.08666302956686937</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>norm_qa_dwell_time_pdf</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6.557256321344085e-07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,10 +530,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>norm_qa_saccade_regression_rate_%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3.117376560465782e-08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
